--- a/Segundo Año/Sistemas Operativos/Guías_de_Ejercicios/Planificación/Ejercicio 7.xlsx
+++ b/Segundo Año/Sistemas Operativos/Guías_de_Ejercicios/Planificación/Ejercicio 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Simbiosis\UTN\Segundo Año\Sistemas Operativos\Guías_de_Ejercicios\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A125A13-DCB4-42CF-99D9-BECAB5E3E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAD20DF-9657-4656-9905-2635F1DADB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 7" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>-</t>
@@ -223,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -347,15 +344,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF999999"/>
       </left>
@@ -426,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -449,7 +437,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,93 +501,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +731,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -776,175 +744,175 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="21" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="I2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="19" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21" t="s">
+      <c r="T2" s="40"/>
+      <c r="U2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="Z2" s="42" t="s">
+      <c r="V2" s="37"/>
+      <c r="Z2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="48"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31"/>
     </row>
     <row r="3" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="16"/>
-      <c r="I3" s="11" t="s">
+      <c r="D3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13">
+      <c r="J3" s="33"/>
+      <c r="K3" s="34">
         <v>0</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="11">
+      <c r="L3" s="35"/>
+      <c r="M3" s="32">
         <v>4</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13">
+      <c r="N3" s="33"/>
+      <c r="O3" s="34">
         <v>3</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="11">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32">
         <v>2</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="12"/>
-      <c r="Z3" s="43" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="33"/>
+      <c r="Z3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="48"/>
+      <c r="AA3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="31"/>
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="I4" s="11" t="s">
+      <c r="D4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="I4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13">
+      <c r="J4" s="33"/>
+      <c r="K4" s="34">
         <v>0</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="11">
+      <c r="L4" s="35"/>
+      <c r="M4" s="32">
         <v>2</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13">
+      <c r="N4" s="33"/>
+      <c r="O4" s="34">
         <v>3</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="11">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="32">
         <v>1</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="13">
+      <c r="R4" s="33"/>
+      <c r="S4" s="34">
         <v>4</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="11">
+      <c r="T4" s="35"/>
+      <c r="U4" s="32">
         <v>1</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="48"/>
+      <c r="V4" s="33"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="31"/>
     </row>
     <row r="5" spans="1:34" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13">
+      <c r="J5" s="33"/>
+      <c r="K5" s="34">
         <v>3</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11">
+      <c r="L5" s="35"/>
+      <c r="M5" s="32">
         <v>10</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13">
+      <c r="N5" s="33"/>
+      <c r="O5" s="34">
         <v>2</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="11">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="32">
         <v>5</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="48"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="33"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="31"/>
     </row>
     <row r="6" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
@@ -954,20 +922,20 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="33"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -1013,39 +981,38 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="24" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27" t="s">
+      <c r="R8" s="19"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1053,31 +1020,31 @@
     </row>
     <row r="9" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1087,37 +1054,36 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="27" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="31"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1129,31 +1095,31 @@
     </row>
     <row r="11" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -1163,245 +1129,187 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="24" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="24"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="27" t="s">
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
     </row>
     <row r="14" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="34"/>
+      <c r="K14" s="4">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4">
+        <v>11</v>
+      </c>
+      <c r="M14" s="4">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4">
+        <v>13</v>
+      </c>
+      <c r="O14" s="4">
+        <v>14</v>
+      </c>
+      <c r="P14" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>16</v>
+      </c>
+      <c r="R14" s="4">
+        <v>17</v>
+      </c>
+      <c r="S14" s="4">
+        <v>18</v>
+      </c>
+      <c r="T14" s="4">
+        <v>19</v>
+      </c>
+      <c r="U14" s="4">
+        <v>20</v>
+      </c>
+      <c r="V14" s="4">
+        <v>21</v>
+      </c>
+      <c r="W14" s="4">
+        <v>22</v>
+      </c>
+      <c r="X14" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>30</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>31</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>32</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-    </row>
-    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4">
-        <v>7</v>
-      </c>
-      <c r="I16" s="4">
-        <v>8</v>
-      </c>
-      <c r="J16" s="4">
-        <v>9</v>
-      </c>
-      <c r="K16" s="4">
-        <v>10</v>
-      </c>
-      <c r="L16" s="4">
-        <v>11</v>
-      </c>
-      <c r="M16" s="4">
-        <v>12</v>
-      </c>
-      <c r="N16" s="4">
-        <v>13</v>
-      </c>
-      <c r="O16" s="4">
-        <v>14</v>
-      </c>
-      <c r="P16" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>16</v>
-      </c>
-      <c r="R16" s="4">
-        <v>17</v>
-      </c>
-      <c r="S16" s="4">
-        <v>18</v>
-      </c>
-      <c r="T16" s="4">
-        <v>19</v>
-      </c>
-      <c r="U16" s="4">
-        <v>20</v>
-      </c>
-      <c r="V16" s="4">
-        <v>21</v>
-      </c>
-      <c r="W16" s="4">
-        <v>22</v>
-      </c>
-      <c r="X16" s="4">
-        <v>23</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>24</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>25</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>26</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>27</v>
-      </c>
-      <c r="AC16" s="4">
-        <v>28</v>
-      </c>
-      <c r="AD16" s="4">
-        <v>29</v>
-      </c>
-      <c r="AE16" s="4">
-        <v>30</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>31</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>32</v>
-      </c>
-      <c r="AH16" s="5">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="15" spans="1:34" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
@@ -1433,81 +1341,14 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-    </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-    </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-    </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-    </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-    </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I6:J6"/>
@@ -1524,12 +1365,27 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
